--- a/Manual Testing Project_Personal Netbanking System.xlsx
+++ b/Manual Testing Project_Personal Netbanking System.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="Fund Transfer" sheetId="7" r:id="rId6"/>
     <sheet name="Cards" sheetId="9" r:id="rId7"/>
     <sheet name="Loans" sheetId="10" r:id="rId8"/>
-    <sheet name="Offers" sheetId="11" r:id="rId9"/>
+    <sheet name="Bill Payment" sheetId="12" r:id="rId9"/>
+    <sheet name="Invesment" sheetId="13" r:id="rId10"/>
+    <sheet name="Offers" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="277">
   <si>
     <t>Project Name</t>
   </si>
@@ -154,10 +157,6 @@
   <si>
     <t>1.User should be navigated to Login page
 2.User should get logged in and taken to the 'Account' page</t>
-  </si>
-  <si>
-    <t>1. User is navigated to Login page
-2.User got logged in and taken to the 'Account' page</t>
   </si>
   <si>
     <t>TC_LF_002</t>
@@ -811,6 +810,257 @@
   </si>
   <si>
     <t>Validate the working of 'Offer' functionality</t>
+  </si>
+  <si>
+    <t>Verify that the user can view their account balance and transaction history.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view and download their account statements.</t>
+  </si>
+  <si>
+    <t>Verify that the user can transfer funds between their accounts.</t>
+  </si>
+  <si>
+    <t>Verify that the user can transfer funds to a beneficiary they have added to their account.</t>
+  </si>
+  <si>
+    <t>Verify that the user can make bill payments through the net banking application.</t>
+  </si>
+  <si>
+    <t>Verify that the user can set up and manage alerts for their account.</t>
+  </si>
+  <si>
+    <t>Verify that the user can request a new debit card through the net banking application.</t>
+  </si>
+  <si>
+    <t>Verify that the user can block their debit card if it is lost or stolen.</t>
+  </si>
+  <si>
+    <t>Verify that users can view and download investment-related documents, such as mutual fund statements.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view and download loan-related documents, such as loan statements and repayment schedules.</t>
+  </si>
+  <si>
+    <t>Verify that the user can access and use any additional features or services the net banking application offers, such as investing in mutual funds or purchasing insurance products.</t>
+  </si>
+  <si>
+    <t>Verify if the bank website login page does not appear forged.</t>
+  </si>
+  <si>
+    <t>Verify if the bank login page has a username and password.</t>
+  </si>
+  <si>
+    <t>Verify if the user is redirected to the dashboard after passing all authentication processes.</t>
+  </si>
+  <si>
+    <t>Verify if the user has access to the online money transfer feature.</t>
+  </si>
+  <si>
+    <t>Check if the user can transfer funds option is available during the specific period (9 am to 5 pm).</t>
+  </si>
+  <si>
+    <t>Check if the fund transfer option shows notice for off-business hours transactions.</t>
+  </si>
+  <si>
+    <t>Verify if the user can add the beneficiary.</t>
+  </si>
+  <si>
+    <t>Verify if the beneficiary details can be verified.</t>
+  </si>
+  <si>
+    <t>Verify if the fund transfer option allows NEFT or RTGS option for nationalized money transfers.</t>
+  </si>
+  <si>
+    <t>Verify if the fund transfer page asks for the beneficiary name, IFSC code, bank name, fund amount, and purpose of the transfer.</t>
+  </si>
+  <si>
+    <t>Verify if the fund transfer page asks for a PAN number if the number of funds gets over 50k.</t>
+  </si>
+  <si>
+    <t>Check if the fund transfer page has a 2-step authentication before you finalize the transfer.</t>
+  </si>
+  <si>
+    <t>Check if the interbank fund transfer happens instantly or not.</t>
+  </si>
+  <si>
+    <t>Check the amount of time it takes for the funds to be transferred between in-business hours.</t>
+  </si>
+  <si>
+    <t>Check the amount of time it takes for the funds to be transferred between business hours.</t>
+  </si>
+  <si>
+    <t>Check if the amount transferred notification is sent to the sender and receiver.</t>
+  </si>
+  <si>
+    <t>Check if the amount gets transferred to the exact person mentioned in the beneficiary.</t>
+  </si>
+  <si>
+    <t>Verify that the correct account details is getting displayed on the accounts page.</t>
+  </si>
+  <si>
+    <t>TC_AC_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is able to log in successfully.
+2. The User should be taken to the 'Account page and the User should see the correct account details.
+</t>
+  </si>
+  <si>
+    <t>1. User is able to log in successfully.
+2. The user should be taken to the 'Account page and the User should see the correct account details.
+3. The user should be able to see the correct transaction history.</t>
+  </si>
+  <si>
+    <t>1. User is able to log in successfully.
+2. The user should be taken to the 'Account page and the User should see the correct account details.
+3. The user should able to see the correct transaction history is being displayed.
+4. The user should be able to print the account statement.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on Account Summary from the left navigation bar.
+4. Check the available balance for the account on Total Available Balance.
+5. Tap on the forward arrow beside Total Available Balance.
+6. Verify that the Correct account number with the correct details is getting displayed.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on Account Summary from the left navigation bar.
+4. Check the available balance for the account on Total Available Balance.
+5. Tap on the forward arrow beside Total Available Balance.
+6. Verify that the Correct account number with the correct details is getting displayed.
+7. Tap on "View" from right corner.
+8. Verify the correct transaction history.</t>
+  </si>
+  <si>
+    <t>TC_AC_003</t>
+  </si>
+  <si>
+    <t>TC_AC_004</t>
+  </si>
+  <si>
+    <t>TC_AC_005</t>
+  </si>
+  <si>
+    <t>TC_AC_006</t>
+  </si>
+  <si>
+    <t>TC_FT_002</t>
+  </si>
+  <si>
+    <t>TC_FT_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL (https://netbanking.hdfcbank.com/netbanking/) in any supported Browser
+</t>
+  </si>
+  <si>
+    <t>https://netbanking.hdfcbank.com/netbanking/</t>
+  </si>
+  <si>
+    <t>1. The bank website login page does not appear forged.</t>
+  </si>
+  <si>
+    <t>Verify if the bank login page has a custmer ID</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on Account Summary from the left navigation bar.
+4. Check the available balance for the account on Total Available Balance.
+5. Tap on the forward arrow beside Total Available Balance.
+6. Verify that the Correct account number with the correct details is getting displayed.
+7. Tap on "View" from right corner.
+8. Tap on "Print This page" in the top right corner on View/ Download Account Statement.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on "Profile Details" in the top right corner.
+4. Verify the contact details of a user.
+5. Verify the correct email ID and mobile is set up to receive updates related account.</t>
+  </si>
+  <si>
+    <t>1. After login the user navigates to "Profile Details" in the top right corner.
+2 The user is able to see the correct contact details.
+3. The user can set up and manage alerts for their account on both mobile number and email ID.</t>
+  </si>
+  <si>
+    <t>OPEN Banking-BUG-3 (The user is not able to set up and manage alerts for their account on aemail ID,)</t>
+  </si>
+  <si>
+    <t>Verify that the user can update their personal information, such as their contact details and PAN number.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on "Profile Details" in the top right corner.
+4. Verify the contact details of a user.
+5. Verify that the user can update their personal information, such as their contact details and PAN number.</t>
+  </si>
+  <si>
+    <t>1. After login the user navigates to "Profile Details" in the top right corner.
+2 The user is able to see the correct contact details.
+3. The user can set up and manage alerts for their account on a mobile number.
+4. The user is not able to set up and manage alerts for their account on email ID,</t>
+  </si>
+  <si>
+    <t>1. After login the user navigates to "Profile Details" in the top right corner.
+2 The user is able to see the correct contact details.
+3. The user can update the PAN number
+4. The user is not able to update an email ID on their account.</t>
+  </si>
+  <si>
+    <t>TC_AC_007</t>
+  </si>
+  <si>
+    <t>Verify that the user can update their address.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on "Profile Details" in the top right corner.
+4. Verify the contact details of a user.
+5. Verify that the user can update their address.</t>
+  </si>
+  <si>
+    <t>1. After login the user navigates to "Profile Details" in the top right corner.
+2 The user is able to see the correct contact details.
+3. The user is able to update their address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the website using valid credentials
+2. Tap on Accounts from the navigation bar.
+3. Tap on Account Summary from the left navigation bar.
+4. Check the available balance for the account on Total Available Balance.
+5. Tap on the forward arrow beside Total Available Balance.
+6. Verify that the Correct account number with the correct details is getting displayed.
+7. Verify all the images are loading properly.
+8. Verify all the links loading and navigate to the correct page.
+</t>
+  </si>
+  <si>
+    <t>Verify if the bank website account page is loaded with proper information.</t>
+  </si>
+  <si>
+    <t>1. User is able to log in successfully.
+2. The user should be taken to the 'Account page and the User should see the correct account details.
+3. The user should be able to see the correct transaction history.
+4. All the images and links are loading properly.</t>
+  </si>
+  <si>
+    <t>Verify that the fund transfer page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The fund transfer page is accessible to the user.</t>
   </si>
 </sst>
 </file>
@@ -826,51 +1076,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Verdana"/>
@@ -882,8 +1087,51 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +1147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,90 +1234,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1788,217 +2110,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="73.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="73.08984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="9" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E15" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="E17" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:C5"/>
@@ -2008,12 +2330,331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="341" x14ac:dyDescent="0.35">
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{DE18E06C-2A99-4EE4-9717-C3053FC610D9}">
+            <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{BCF5F0E4-8935-4052-918A-D53644EF1C64}">
+            <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{5CFDDF36-305C-4C55-B553-69CF9D6C5FC0}">
+            <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{CB2B25EF-B3DE-4946-AD14-C268E8652BF0}">
+            <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{CC30BABC-B972-48EC-8C08-AEB5F9C5A6BC}">
+            <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{35F68B2F-8160-4AB9-8CF5-81B0775A5BB7}">
+            <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{6D5DB3C0-3FE2-41FA-A0D1-6F50DBA8F298}">
+            <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{9B803C2E-0744-4D5B-9852-1163FE1D179C}">
+            <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,524 +2669,604 @@
     <col min="8" max="8" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="155" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="H10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="186" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="G17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="195" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="330" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="240" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="10"/>
+      <c r="K17" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J15">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="NOT TESTED">
+  <conditionalFormatting sqref="J4:J17">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2558,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2574,319 +3295,319 @@
     <col min="11" max="11" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="81" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="124" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="G7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="G9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="81" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="81" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="81" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2903,386 +3624,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="49" style="21" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="45.7265625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="21"/>
+    <col min="1" max="1" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="229.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" ht="263.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="108.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="B3" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="G4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="108" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="G7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="J10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="81" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="59" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="56" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3298,112 +4019,394 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="283.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="B2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="155" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="51" priority="21" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="14" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3418,86 +4421,378 @@
     <col min="8" max="8" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="81" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3507,99 +4802,145 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="283.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="B2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3609,99 +4950,123 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="283.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="341" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="224" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3716,102 +5081,145 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="283.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="15" t="s">
+    <row r="2" spans="1:11" ht="341" x14ac:dyDescent="0.35">
+      <c r="C2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{9504D7B5-631E-4C4B-9F00-ADE9E12F6CF7}">
+            <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{C2A6F513-8A43-4AB0-89D4-6E331CB07496}">
+            <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{F6472F41-3FC9-4215-8375-D93999FE5265}">
+            <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{04C0C3C0-FE35-47BC-8449-ECAB9A70ACE0}">
+            <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Manual Testing Project_Personal Netbanking System.xlsx
+++ b/Manual Testing Project_Personal Netbanking System.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnandane\Documents\Zoom\Edubridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,7 @@
     <sheet name="Cards" sheetId="9" r:id="rId7"/>
     <sheet name="Loans" sheetId="10" r:id="rId8"/>
     <sheet name="Offers" sheetId="11" r:id="rId9"/>
-    <sheet name="Bill Payment" sheetId="12" r:id="rId10"/>
-    <sheet name="Invesment" sheetId="13" r:id="rId11"/>
+    <sheet name="Investment" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="445">
   <si>
     <t>Project Name</t>
   </si>
@@ -823,9 +822,6 @@
     <t>Verify that the user can transfer funds to a beneficiary they have added to their account.</t>
   </si>
   <si>
-    <t>Verify that the user can make bill payments through the net banking application.</t>
-  </si>
-  <si>
     <t>Verify that the user can set up and manage alerts for their account.</t>
   </si>
   <si>
@@ -839,9 +835,6 @@
   </si>
   <si>
     <t>Verify that the user can view and download loan-related documents, such as loan statements and repayment schedules.</t>
-  </si>
-  <si>
-    <t>Verify that the user can access and use any additional features or services the net banking application offers, such as investing in mutual funds or purchasing insurance products.</t>
   </si>
   <si>
     <t>Verify if the bank website login page does not appear forged.</t>
@@ -1151,6 +1144,91 @@
     <t>Check if the fund transfer option shows notice for off-business hours transactions. (after 7 am to 7 pm or RBI non-working days).</t>
   </si>
   <si>
+    <t>TC_FT_009</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs.
+5. Tap on "Add on Beneficiary"
+6. Enter all necessary account details in the required fields. e.g. 
+6. Tap on "Confirm" to add a beneficiary.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, e.g. name, IFSC code, bank name, fund amount, and purpose of the transfer
+3. the user can add the beneficiary.</t>
+  </si>
+  <si>
+    <t>TC_FT_010</t>
+  </si>
+  <si>
+    <t>TC_FT_011</t>
+  </si>
+  <si>
+    <t>TC_FT_012</t>
+  </si>
+  <si>
+    <t>TC_FT_013</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, the user can transfer the funds.
+3. The amount of time takes for fund transfer is more than 4 minutes.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, the user can transfer the funds.
+3. The amount of time takes for fund transfer is more than 4 min 23 sec.</t>
+  </si>
+  <si>
+    <t>OPEN Banking-BUG-4 (The amount of time takes for fund transfer to other bank is more than 4 min 23 sec.)</t>
+  </si>
+  <si>
+    <t>TC_FT_014</t>
+  </si>
+  <si>
+    <t>TC_FT_015</t>
+  </si>
+  <si>
+    <t>Verify if the amount transferred notification is sent to the sender and receiver.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, the user can transfer the funds.
+3. The amount transferred notification is sent to the sender and receiver.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, the user can transfer the funds.
+3. The amount gets transferred to the exact person mentioned in the beneficiary.</t>
+  </si>
+  <si>
+    <t>TC_CD_002</t>
+  </si>
+  <si>
+    <t>Verify that the Cards page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The Loans page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The cards page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>Verify that the page does not proceed to the payment page before all the mandatory information is filled.</t>
+  </si>
+  <si>
+    <t>Verify if multiple payment options are not getting selected. Only one at a time.</t>
+  </si>
+  <si>
+    <t>Verify that the user gets information about unsuccessful payments.</t>
+  </si>
+  <si>
+    <t>Verify if the transaction gets canceled if the wrong OTP is entered.</t>
+  </si>
+  <si>
     <t>1. Login to the website using valid credentials
 2. Tap on Fund Transfer from the navigation bar.
 3.  Verify that the fund transfer page is accessible to the user.
@@ -1159,51 +1237,12 @@
 6. Enter all necessary account details in the required fields.
 7. Enter the total amount to transfer between accounts.
 8. Tap on confirm to transfer funds.
-9. Verify redirected to 2-authentication and tap on "Confirm"
-10. verify user is alert message for off-business hours.</t>
-  </si>
-  <si>
-    <t>TC_FT_009</t>
-  </si>
-  <si>
-    <t>1. Login to the website using valid credentials
-2. Tap on Fund Transfer from the navigation bar.
-3.  Verify that the fund transfer page is accessible to the user.
-4. Verify that the all fund transfer option are getting displayed on the fund transfer page.</t>
+9. Verify redirected to 2-step-authentication and tap on "Confirm"
+10. verify the user is an alert message for off-business hours.</t>
   </si>
   <si>
     <t>1. The fund transfer page is accessible to the user.
-2. The user is able to explore the type of fund transfer option.
-3. e.g.  NEFT or RTGS, "Transfer within the bank option" or "Transfer other bank"</t>
-  </si>
-  <si>
-    <t>1. The fund transfer page is accessible to the user.
-2. Once the user adds the required details in the field, the alert message for off-business hours being displayed on the screen.</t>
-  </si>
-  <si>
-    <t>1. Login to the website using valid credentials
-2. Tap on Fund Transfer from the navigation bar.
-3.  Verify that the fund transfer page is accessible to the user.
-4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs.
-5. Tap on "Add on Beneficiary"
-6. Enter all necessary account details in the required fields. e.g. 
-6. Tap on "Confirm" to add a beneficiary.</t>
-  </si>
-  <si>
-    <t>1. The fund transfer page is accessible to the user.
-2. Once the user adds the required details in the field, e.g. name, IFSC code, bank name, fund amount, and purpose of the transfer
-3. the user can add the beneficiary.</t>
-  </si>
-  <si>
-    <t>TC_FT_010</t>
-  </si>
-  <si>
-    <t>TC_FT_011</t>
-  </si>
-  <si>
-    <t>1. The fund transfer page is accessible to the user.
-2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The user can verifye 2-step-authentication and tap on "Confirm" to finalize the transfer.</t>
+2. Once the user adds the required details in the field, the alert message for off-business hours is displayed on the screen.</t>
   </si>
   <si>
     <t>1. Login to the website using valid credentials
@@ -1214,13 +1253,7 @@
 6. Enter all necessary account details in the required fields.
 7. Enter the total amount to transfer between accounts.
 8. Tap on confirm to transfer funds.
-9. Verify redirected to 2-step-authentication and tap on "Confirm" to finalize the transfer.</t>
-  </si>
-  <si>
-    <t>TC_FT_012</t>
-  </si>
-  <si>
-    <t>TC_FT_013</t>
+9. Verify redirected to 2-step authentication and tap on "Confirm" to finalize the transfer.</t>
   </si>
   <si>
     <t>1. Login to the website using valid credentials
@@ -1231,30 +1264,8 @@
 6. Enter all necessary account details in the required fields.
 7. Enter the total amount to transfer between accounts.
 8. Tap on confirm to transfer funds.
-9. Verify redirected to 2-step-authentication and tap on "Confirm" to finalize the transfer.
-10. The amount of time takes for fund transfer is less than 3 minutes.</t>
-  </si>
-  <si>
-    <t>1. The fund transfer page is accessible to the user.
-2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The amount of time takes for fund transfer is more than 4 minutes.</t>
-  </si>
-  <si>
-    <t>1. The fund transfer page is accessible to the user.
-2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The amount of time takes for fund transfer is more than 4 min 23 sec.</t>
-  </si>
-  <si>
-    <t>OPEN Banking-BUG-4 (The amount of time takes for fund transfer to other bank is more than 4 min 23 sec.)</t>
-  </si>
-  <si>
-    <t>TC_FT_014</t>
-  </si>
-  <si>
-    <t>TC_FT_015</t>
-  </si>
-  <si>
-    <t>Verify if the amount transferred notification is sent to the sender and receiver.</t>
+9. Verify redirected to 2-step authentication and tap on "Confirm" to finalize the transfer.
+10. The amount of time takes for a fund transfer is less than 3 minutes.</t>
   </si>
   <si>
     <t>1. Login to the website using valid credentials
@@ -1265,313 +1276,660 @@
 6. Enter all necessary account details in the required fields.
 7. Enter the total amount to transfer between accounts.
 8. Tap on confirm to transfer funds.
-9. Verify redirected to 2-step-authentication and tap on "Confirm" to finalize the transfer.
+9. Verify redirected to 2-step authentication and tap on "Confirm" to finalize the transfer.
 10. Verify the amount transferred notification is sent to the sender and receiver.</t>
   </si>
   <si>
     <t>1. The fund transfer page is accessible to the user.
 2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The  amount transferred notification is sent to the sender and receiver.</t>
+3. The user can verify 2-step-authentication and tap on "Confirm" to finalize the transfer.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Verify that all fund transfer options are getting displayed on the fund transfer page.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. The user is able to explore the type of fund transfer option.
+3. e.g.  NEFT or RTGS, "Transfer within the bank option" or "Transfer other banks"</t>
+  </si>
+  <si>
+    <t>TC_CD_003</t>
+  </si>
+  <si>
+    <t>TC_CD_004</t>
+  </si>
+  <si>
+    <t>TC_CD_006</t>
+  </si>
+  <si>
+    <t>Verify that the system should allow a user to successfully make a payment with a valid debit card.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Cards from the navigation bar.
+3.  Verify that the Cards  page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The cards page is accessible to the user.
+User is should be able to block the debit card.</t>
+  </si>
+  <si>
+    <t>The cards page is accessible to the user.
+The user is able to request for new debit card.</t>
+  </si>
+  <si>
+    <t>TC_CD_005</t>
+  </si>
+  <si>
+    <t>1. The Cards page is accessible to the 
+2. Enter all mandatory fields.
+3. The page does not proceed to the payment page before all the mandatory information is filled.</t>
+  </si>
+  <si>
+    <t>1. The Cards page is accessible to the 
+2. Enter all mandatory fields.
+3. The user is able to make a successful payment with a valid debit card.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Cards from the navigation bar.
+3.  Verify that the Cards page is accessible to the user.
+4. Tap on request to apply for a new debit card. 
+5. Enter all the mandatory details.
+6. Tap on "Confirm" for successful application.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Cards from the navigation bar.
+3.  Verify that the Cards page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The cards page is accessible to the user.
+The user is should be able to block the debit card.</t>
+  </si>
+  <si>
+    <t>1. Tap on Cards from the navigation bar.
+2.  Verify that the Cards page is accessible to the user.
+3. Check if all the labels and boxes are visible.
+4. Verify the payment gateway company logo or name.
+5. Check if the debit card number is masked or not.
+6. Verify that all the payment options are visible.
+7. Check if the color scheme matches the specifications.
+8. Enter all mandatory fields.
+9. Verify that the user is able to make a successful payment with a valid debit card.</t>
+  </si>
+  <si>
+    <t>1. Tap on Cards from the navigation bar.
+2.  Verify that the Cards page is accessible to the user.
+3. Check if all the labels and boxes are visible.
+4. Verify the payment gateway company logo or name.
+5. Check if the debit card number is masked or not.
+6. Verify that all the payment options are visible.
+7. Check if the color scheme matches the specifications.
+8. Fill in all mandatory fields except the VCC number.
+9. Verify that the page does not proceed to the payment page before all the mandatory information is filled.</t>
+  </si>
+  <si>
+    <t>1. Open the Website URL
+2. User is logged in
+3. The user have more than one payment option.</t>
+  </si>
+  <si>
+    <t>TC_FT_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL
+2. User is logged in
+3. The user should have expired/blocked card.
+</t>
+  </si>
+  <si>
+    <t>Check if the payment is not getting processed with an expired/blocked card.</t>
+  </si>
+  <si>
+    <t>1. Tap on Cards from the navigation bar.
+2.  Verify that the Cards page is accessible to the user.
+3. Check if all the labels and boxes are visible.
+4. Verify the payment gateway company logo or name.
+5. Select expired/ blocked card.
+6. Check if the debit card number is masked or not.
+7. Verify that all the payment options are visible.
+8. Check if the color scheme matches the specifications.
+9. Fill in all mandatory fields.
+10. Verify that the payment is not getting processed with an expired/blocked card.</t>
+  </si>
+  <si>
+    <t>1. The Cards page is accessible to the 
+2. Enter all mandatory fields.
+3. The user is unable to complete the payment process.</t>
+  </si>
+  <si>
+    <t>TC_CD_007</t>
+  </si>
+  <si>
+    <t>Verify that the page does not proceed to the payment page when the user enters the wrong CVV.</t>
+  </si>
+  <si>
+    <t>1. The Cards page is accessible to the 
+2. Enter all mandatory fields.
+3. The page does not proceed to the payment page when the user enters the wrong CVV.</t>
+  </si>
+  <si>
+    <t>1. Tap on Cards from the navigation bar.
+2.  Verify that the Cards page is accessible to the user.
+3. Check if all the labels and boxes are visible.
+4. Verify the payment gateway company logo or name.
+5. Check if the debit card number is masked or not.
+6. Verify that all the payment options are visible.
+7. Check if the color scheme matches the specifications.
+8. Fill in all mandatory fields correctly except the VCC number.
+9. Verify that the page does not proceed to the payment page before all the mandatory information is filled.
+10. Repeat steps 1 to 8 with the below combination. and observe the result.
+- a) Credit/debit card number+wrong date+ right CVV
+b) Credit/debit card number+ right date+ wrong CVV
+c) Wrong credit/debit card number+ right date+ right CVV
+d) And some other similar combinations</t>
+  </si>
+  <si>
+    <t>Verify if the user gets a confirmation message or mail if the payment is successful.</t>
+  </si>
+  <si>
+    <t>TC_FT_017</t>
   </si>
   <si>
     <t>1. The fund transfer page is accessible to the user.
 2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The amount transferred notification is sent to the sender and receiver.</t>
+3. The user gets a confirmation message or mail if the payment is successful.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Tap on confirm to transfer funds.
+9. Verify if the user gets a confirmation message or mail if the payment is successful.</t>
+  </si>
+  <si>
+    <t>Verify if a pop-up appears if the session has expired.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Take more than x minute to enter all the mandatory details.
+8. Tap on confirm to transfer funds.
+9. Verify if a pop-up appears if the session has expired.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, takes more than x minute.
+3. The user gets a pop-up appears if the session has expired.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, takes more than x minute.
+3. The user gets a pop-up that appears if the session has expired.</t>
+  </si>
+  <si>
+    <t>TC_CD_008</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Take more than x minute to enter all the mandatory details.
+8. Tap on confirm to transfer funds.
+9. Verify if a pop-up appears if the session has expired.
+10. Verify that the user gets information about unsuccessful payments.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, takes more than x minute.
+3. The user gets a pop-up appears if the session has expired.
+4. The user gets information about unsuccessful payments.</t>
+  </si>
+  <si>
+    <t>1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field, takes more than x minute.
+3. The user gets information about unsuccessful payments..</t>
+  </si>
+  <si>
+    <t>TC_CD_009</t>
+  </si>
+  <si>
+    <t>TC_FT_018</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Tap on confirm to transfer funds.
+9. Verify redirected to 2-step authentication and tap on "Confirm" to finalize the transfer.
+10. Verify if the user is directed back to the application after a successful transaction.</t>
+  </si>
+  <si>
+    <t>Verify if the user is directed back to the application after a successful transaction.</t>
   </si>
   <si>
     <t>1. The fund transfer page is accessible to the user.
 2. Once the user adds the required details in the field, the user can transfer the funds.
-3. The amount gets transferred to the exact person mentioned in the beneficiary.</t>
-  </si>
-  <si>
-    <t>TC_CD_002</t>
-  </si>
-  <si>
-    <t>Verify that the Cards page is accessible to the user.</t>
-  </si>
-  <si>
-    <t>Verify that the Loans page is accessible to the user.</t>
-  </si>
-  <si>
-    <t>The Loans page is accessible to the user.</t>
-  </si>
-  <si>
-    <t>The cards page is accessible to the user.</t>
-  </si>
-  <si>
-    <t>Verifying the system’s ability to accurately calculate the discount amount based on the offer’s terms and conditions.</t>
-  </si>
-  <si>
-    <t>Discount validation: Verifying the system’s ability to validate that the customer is eligible for the offer, such as by checking the customer’s purchase history or by verifying a promotional code.</t>
-  </si>
-  <si>
-    <t>Discount expiration: Verifying the system’s ability to handle expired discounts, such as by disabling the offer or by displaying an error message.</t>
-  </si>
-  <si>
-    <t>Discount application: Verifying the system’s ability to apply the discount to the customer’s order or purchase.</t>
-  </si>
-  <si>
-    <t>Discount stacking: Verifying the system’s ability to handle multiple discounts apply to the same purchase.</t>
-  </si>
-  <si>
-    <t>Discount tracking: Verifying the system’s ability to track the usage of the discount, such as by keeping a record of how many times it has been used or by tracking the amount of money saved.</t>
-  </si>
-  <si>
-    <t>Discount limit: Verifying the system’s ability to handle a limit on the number of times the discount can use, such as by disabling the offer after a certain number of uses.</t>
-  </si>
-  <si>
-    <t>Discount combination: testing the system’s ability to combine different discounts and offers together, such as by applying a percentage discount on top of a free gift.</t>
-  </si>
-  <si>
-    <t>Discount display: testing the system’s ability to display the discount information correctly in the checkout process, such as by showing the original price, the discounted price, and the savings amount.</t>
-  </si>
-  <si>
-    <t>Discount customization: testing the system’s ability to customize the discount based on different criteria, such as by offering a different discount for different customer groups or for different products.</t>
-  </si>
-  <si>
-    <t>[22:20] Nandane, Nehal</t>
-  </si>
-  <si>
-    <t>Positive Test Cases – Credit Card Payment</t>
-  </si>
-  <si>
-    <t>Verify that the system should allow a user to successfully make a payment with a valid credit card.</t>
-  </si>
-  <si>
-    <t>Verify that the system should accurately process and authorize the payment.</t>
-  </si>
-  <si>
-    <t>Verify that the system should provide a receipt or confirmation of the payment.</t>
-  </si>
-  <si>
-    <t>Verify that the system should handle refunds and cancellation of transactions properly.</t>
-  </si>
-  <si>
-    <t>Verify that the system should have a secure payment gateway for online transactions.</t>
-  </si>
-  <si>
-    <t>Negative Test Cases – Credit Card Payment</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow a user to make a payment with an invalid or expired credit card.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow a user to make a payment with incorrect CVV or expiration date.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow duplicate transactions.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow unauthorized access to a user’s credit card information.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow security vulnerabilities in the system that could lead to credit card fraud or data breaches.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow errors or crashes while processing user’s requests.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow a user to make a payment with insufficient funds.</t>
-  </si>
-  <si>
-    <t>Verify that the system should not allow a user to make a payment with a blacklisted or stolen credit card.</t>
-  </si>
-  <si>
-    <t>[22:21] Nandane, Nehal</t>
-  </si>
-  <si>
-    <t>Functional Test cases – Credit Card Payment</t>
-  </si>
-  <si>
-    <r>
-      <t>Sr.NoTestcase_IDTest Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>1Testcase_.01Verify that maximum credit limit on credit card2Testcase_.02Verify that the maximum withdrawal limit of credit card payment3Testcase_.03Verify that domestic payment transactions allow with credit cards or not4Testcase_.04Verify that international payment transactions allow with credit card or not5Testcase_.05Verify that the user is able to withdraw cash from a credit card or not6Testcase_.06Verify that credit card transaction with valid PIN numbers7Testcase_.07Verify that credit card transactions with invalid PIN numbers</t>
-    </r>
-  </si>
-  <si>
-    <t>Negative Test cases – Credit Card</t>
-  </si>
-  <si>
-    <r>
-      <t>Sr.NoTestcase_IDTest Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>1Testcase_01Verify that the user should be able to do transactions with invalid pin numbers2Testcase_02Verify that the user should not be able to allow transactions with more than the maximum limit.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sr.NoTestcase_IDTest Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1Testcase_.01Verify that maximum credit limit on credit card2Testcase_.02Verify that the maximum withdrawal limit of credit card payment3Testcase_.03Verify that domestic payment transactions allow with credit cards or not4Testcase_.04Verify that international payment transactions allow with credit card or not5Testcase_.05Verify that the user is able to withdraw cash from a credit card or not6Testcase_.06Verify that credit card transaction with valid PIN numbers7Testcase_.07Verify that credit card transactions with invalid PIN numbers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sr.NoTestcase_IDTest Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1Testcase_01Verify that the user should be able to do transactions with invalid pin numbers2Testcase_02Verify that the user should not be able to allow transactions with more than the maximum limit.</t>
-    </r>
-  </si>
-  <si>
-    <t>UI Test Cases for Payment Gateway</t>
-  </si>
-  <si>
-    <t>Functional Test Cases for Payment Gateway</t>
-  </si>
-  <si>
-    <t>Security Test Cases for Payment Gateway</t>
-  </si>
-  <si>
-    <t>Check if all the labels and boxes are visible.</t>
-  </si>
-  <si>
-    <t>Verify the payment gateway company logo or name.</t>
-  </si>
-  <si>
-    <t>Check if the credit card number is masked or not.</t>
-  </si>
-  <si>
-    <t>Verify that all the payment options are visible.</t>
-  </si>
-  <si>
-    <t>Check if the color scheme matches the specifications.</t>
-  </si>
-  <si>
-    <t>Check if each of the payment options is selectable.</t>
-  </si>
-  <si>
-    <t>Check if the default credit/debit card gets automatically added.</t>
-  </si>
-  <si>
-    <t>Verify that the page does not proceed to the payment page before all the mandatory information is filled.</t>
-  </si>
-  <si>
-    <t>Check if multiple cards can be saved as default or not.</t>
-  </si>
-  <si>
-    <t>Verify that the correct currency is reflected on the page.</t>
-  </si>
-  <si>
-    <t>Check if the payment is not getting processed for null values in the cart.</t>
-  </si>
-  <si>
-    <t>Verify if multiple payment options are not getting selected. Only one at a time.</t>
-  </si>
-  <si>
-    <t>Check if the payment is not getting proceeded with an expired/blocked card.</t>
-  </si>
-  <si>
-    <t>Verify cases like-</t>
-  </si>
-  <si>
-    <t>Credit/debit card number+wrong date+ right CVV</t>
-  </si>
-  <si>
-    <t>Credit/debit card number+ right date+ wrong CVV</t>
-  </si>
-  <si>
-    <t>Wrong credit/debit card number+ right date+ right CVV</t>
-  </si>
-  <si>
-    <t>And some other similar combinations</t>
-  </si>
-  <si>
-    <t>Check if the user gets a confirmation message or mail if the payment is successful.</t>
-  </si>
-  <si>
-    <t>Check if a pop-up appears if the session has expired.</t>
-  </si>
-  <si>
-    <t>Verify that the user gets information about unsuccessful payments.</t>
-  </si>
-  <si>
-    <t>Check if double payment is not occurring in any case.</t>
-  </si>
-  <si>
-    <t>Check what happens after the session gets expired. Does the payment still occur?</t>
-  </si>
-  <si>
-    <t>Verify if the respective payment option triggers the right payment gateway.</t>
-  </si>
-  <si>
-    <t>Check if the user is directed back to the application after a successful transaction.</t>
-  </si>
-  <si>
-    <t>Check what happens if the payment gets stopped midway. Does the amount still gets deducted?</t>
-  </si>
-  <si>
-    <t>Check if the pop-up blocker during the payment is functional.</t>
-  </si>
-  <si>
-    <t>Check if the application page is not getting redirected to some other page or link.</t>
-  </si>
-  <si>
-    <t>Verify if the credit card information is in a masked form.</t>
-  </si>
-  <si>
-    <t>Check that the payment is happening through a secured channel. i.e the link starts with HTTPS instead of the regular HTTP pages.</t>
-  </si>
-  <si>
-    <t>Verify if the OTP reaches only the verified number linked with the card.</t>
-  </si>
-  <si>
-    <t>Verify if the transaction gets canceled if the wrong OTP is entered.</t>
-  </si>
-  <si>
-    <t>Check if it cannot be entered multiple times. A hacker can do a brute force attack by entering various combinations.</t>
-  </si>
-  <si>
-    <t>Check if the session gets expired within the specified time.</t>
-  </si>
-  <si>
-    <t>Verify that the person gets notified if the wrong OTP is entered.</t>
-  </si>
-  <si>
-    <t>Check that it does not reflect on multiple numbers.</t>
-  </si>
-  <si>
-    <t>Verify the bank name reflecting on the payment page is the same as the user.</t>
-  </si>
-  <si>
-    <t>Check if the amount deducted is the same as the amount mentioned.</t>
+3. The user is directed back to the application after a successful transaction.</t>
+  </si>
+  <si>
+    <t>TC_FT_019</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Take more than x minute to enter all the mandatory details.
+8. Tap on confirm to transfer funds.
+9. Enter the wrong OTP which was received on the mobile number.
+10.Verify if the transaction gets canceled if the wrong OTP is entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field.
+3. Enter wrong OTP.
+4. The transaction gets canceled if the wrong OTP is entered.
+</t>
+  </si>
+  <si>
+    <t>TC_CD_010</t>
+  </si>
+  <si>
+    <t>TC_CD_011</t>
+  </si>
+  <si>
+    <t>Verify if the user gets OTP on the registered mobile number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the website using valid credentials
+2. Tap on Fund Transfer from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.
+4. Select "Transfer within the bank option" or "Transfer other bank" as the user needs. (NEFT)
+5. Select the already added beneficiary account.
+6. Enter all necessary account details in the required fields.
+7. Enter the total amount to transfer between accounts.
+8. Verify if the user gets OTP on the registered mobile number.
+9. Enter the OTP which was received on the mobile number.
+10. Tap on confirm to transfer funds successfully.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The fund transfer page is accessible to the user.
+2. Once the user adds the required details in the field.
+3. The user recievs OTP on the registred mobile number.
+</t>
+  </si>
+  <si>
+    <t>Verify if the Loans page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to apply for loans, with all required documents.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Loans from the navigation bar.
+3.  Verify that the fund transfer page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Loans from the navigation bar.
+3.  Verify that the Loans page is accessible to the user.
+4. Enter all the mandatory details.
+5. Submit all the mandatory documents.
+6. Verify if the user is able to apply for loans, with all required documents.</t>
+  </si>
+  <si>
+    <t>The Loans page is accessible to the user.
+After entering all the mendatory details and submitting documents user is able to apply for loan.</t>
+  </si>
+  <si>
+    <t>TC_LN_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL
+2. User is logged in
+3. User has already applied for a loan.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Loans from the navigation bar.
+3.  Verify that the Loans page is accessible to the user.
+4. Verify that the user can view.
+5. Verify that the user can download loan-related documents, such as loan statements and repayment schedules.</t>
+  </si>
+  <si>
+    <t>The Loans page is accessible to the user.
+The user can view and download loan-related documents, such as loan statements and repayment schedules.</t>
+  </si>
+  <si>
+    <t>TC_LN_003</t>
+  </si>
+  <si>
+    <t>TC_LN_004</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Loans from the navigation bar.
+3.  Verify that the Loans page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>Verify if all the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>The Loans page is accessible to the user.
+All the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3.  Verify that the offers page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The fund offer is accessible to the user.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4.  Verify if all the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+All the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>TC_OFF_002</t>
+  </si>
+  <si>
+    <t>TC_OFF_003</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code to apply the offer.
+8. Verify if the offer is getting redeemed successfully.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL
+2. User is logged in
+3. Offer is expired already.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code to apply the offer.
+8. Verify the expiry date of the offer.
+9. Confirm if users cannot use expired offers.
+10. Verify that the offer is grayed out and cannot be selected for application.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The offer is grayed out and cannot be selected for application.</t>
+  </si>
+  <si>
+    <t>TC_OFF_004</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to handle expired discounts by disabling the offer or displaying an error message.</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to validate that the customer is eligible for the offer, such as by checking the customer’s purchase history or verifying a promotional code.</t>
+  </si>
+  <si>
+    <t>TC_OFF_005</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to apply the discount to the customer’s order or purchase.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code to apply the offer.
+8. Verify if the offer is getting redeemed successfully.
+9. Verify the correct discount for the customer’s order or purchase.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The offer is applied successfully by entering all the correct details.
+The correct discount for the customer’s order or purchase.</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to handle a limit on the number of times the discount can be used, such as by disabling the offer after a x number of uses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL
+2. User is logged in
+3. User must have an offer.
+4. Offer can be user only once.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code to apply the offer.
+8. Verify if the offer is getting redeemed successfully.
+9. Try to apply the same offer once again.
+10. Verify that the user is not able to redeem the same offer twice.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The offer is applied successfully by entering all the correct details.
+The user is not able to redeem the same offer twice.</t>
+  </si>
+  <si>
+    <t>TC_OFF_006</t>
+  </si>
+  <si>
+    <t>TC_OFF_007</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to validate that the customer is eligible for the offer, such as by checking the customer’s purchase history or verifying a promotional code Percent (%) OFF Offer.</t>
+  </si>
+  <si>
+    <t>1. Open the Website URL
+2. User is logged in
+3. Offer Used: Percent (%) OFF Offer.</t>
+  </si>
+  <si>
+    <t>1. Open the Website URL
+2. User is logged in
+3. Offer Used: 500 Rs OFF Offer on more 1500 or more purchage.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code of 500 Rs OFF Offer on more 1500 or more purchage Offer. to apply the offer.
+8. Verify if the offer is getting redeemed successfully.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The 500 Rs OFF Offer on more 1500 or more purchage offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The 500 Rs OFF Offer on more 1500 or more purchage Offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to validate that the customer is eligible for the offer, such as by checking the customer’s purchase history or verifying a promotional code 500 Rs OFF Offer on more 1500 or more purchages.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code of twenty Percent (20 %) OFF Offer. to apply the offer.
+8. Verify if the offer is getting redeemed successfully.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The twenty Percent (20 %) OFF Offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The twenty Percent (20 %) OFF Offer is not applied correctly.
+User is getting 25 % off instead of 20 %</t>
+  </si>
+  <si>
+    <t>OPEN Banking-BUG-5 (For offer 20% OFF, User is getting 25 % off instead of 20 %)</t>
+  </si>
+  <si>
+    <t>TC_OFF_008</t>
+  </si>
+  <si>
+    <t>TC_OFF_009</t>
+  </si>
+  <si>
+    <t>Verify the system’s ability to validate that the customer is eligible for the offer, such as by checking the customer’s purchase history or verifying a promotional code Buy One Get .other For Rs. 500.</t>
+  </si>
+  <si>
+    <t>1. Open the Website URL
+2. User is logged in
+3. Offer Used: Buy One Get .other For Rs. 500.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on offers from the navigation bar.
+3. Verify that the offers page is accessible to the user.
+4. Verify if all the links are loading and redirecting to the correct pages.
+5. Enter all the details related to the offer.
+6. Verify the customer’s purchase history.
+7. Enter the correct promotional code of Buy One Get .other For Rs. 500 Offer to apply the offer.
+8. Verify if the offer is getting redeemed successfully.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The Buy One Get .other For Rs. 500 offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t>The offers page is accessible to the user.
+The Buy One Get other For Rs. 500 offer is applied successfully by entering all the correct details.</t>
+  </si>
+  <si>
+    <t>TC_IN_001</t>
+  </si>
+  <si>
+    <t>Verify that the Investment page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Investment from the navigation bar.
+3.  Verify that the Investment page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The Investment page is accessible to the user.</t>
+  </si>
+  <si>
+    <t>The Investment page is accessible to the user.
+All the links are loading and redirecting to the correct pages.</t>
+  </si>
+  <si>
+    <t>TC_IN_002</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Investment</t>
+  </si>
+  <si>
+    <t>TC_IN_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Website URL
+2. User is logged in
+3. The user has already an Investment.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the website using valid credentials
+2. Tap on Investment. from the navigation bar.
+3.  Verify that the Investment. page is accessible to the user.
+4. Verify that the user can view Investment..
+5. Verify that the user can download Investment.-related documents, such as mutual fund statements and returns.</t>
+  </si>
+  <si>
+    <t>The Loans page is accessible to the user.
+The user can download Investment.-related documents, such as mutual fund statements and returns.</t>
+  </si>
+  <si>
+    <t>Validate the Investment functionality</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Insufficient Data</t>
+  </si>
+  <si>
+    <t>Test steps are missing.</t>
+  </si>
+  <si>
+    <t>Not Tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,25 +1939,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1635,51 +1975,37 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color rgb="FF282829"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF282829"/>
-      <name val="Segoe UI"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF282829"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1708,7 +2034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1781,132 +2107,822 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="172">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2855,215 +3871,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="73.08984375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="29.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="73.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="20">
-        <v>8</v>
+      <c r="E11" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="20">
-        <v>9</v>
+      <c r="E12" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="20">
-        <v>8</v>
+      <c r="E13" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="20">
-        <v>15</v>
+      <c r="E14" s="13">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="20">
-        <v>37</v>
+      <c r="E15" s="13">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="20">
-        <v>21</v>
+      <c r="C18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3077,93 +4118,159 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="17"/>
+    <col min="3" max="3" width="25.6328125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    <row r="2" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
-        <v>218</v>
+    <row r="3" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="186.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3172,7 +4279,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{9504D7B5-631E-4C4B-9F00-ADE9E12F6CF7}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="NOT TESTED" id="{DE18E06C-2A99-4EE4-9717-C3053FC610D9}">
             <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3182,7 +4289,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{C2A6F513-8A43-4AB0-89D4-6E331CB07496}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="BLOCKED" id="{BCF5F0E4-8935-4052-918A-D53644EF1C64}">
             <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3192,7 +4299,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{F6472F41-3FC9-4215-8375-D93999FE5265}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" text="FAIL" id="{5CFDDF36-305C-4C55-B553-69CF9D6C5FC0}">
             <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3202,7 +4309,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{04C0C3C0-FE35-47BC-8449-ECAB9A70ACE0}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="PASS" id="{CB2B25EF-B3DE-4946-AD14-C268E8652BF0}">
             <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -3212,150 +4319,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="C2" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{DE18E06C-2A99-4EE4-9717-C3053FC610D9}">
-            <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{BCF5F0E4-8935-4052-918A-D53644EF1C64}">
-            <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{5CFDDF36-305C-4C55-B553-69CF9D6C5FC0}">
-            <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{CB2B25EF-B3DE-4946-AD14-C268E8652BF0}">
-            <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J2:J4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3365,10 +4329,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3384,598 +4349,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F3" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H3" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="155" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="186" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="E16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="E17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="155" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="186" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:J17">
-    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="171" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="170" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="169" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="168" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="167" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="166" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="164" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3991,9 +4956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
@@ -4010,318 +4976,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="124" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="163" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="162" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="161" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="160" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4336,388 +5302,389 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="263.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="108.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:11" ht="62" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="159" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="158" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="157" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="156" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="155" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="154" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="152" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4733,10 +5700,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4750,405 +5718,405 @@
     <col min="8" max="8" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="217" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="H4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C5" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G5" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H5" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C6" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E6" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="G6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="155" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="310" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="326" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C9" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="G9" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="155" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="151" priority="25" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="150" priority="26" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="149" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="148" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="147" priority="21" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="146" priority="22" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="145" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="144" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6">
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="143" priority="17" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="142" priority="18" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="141" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="140" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="138" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="137" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="136" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="135" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="130" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="129" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="128" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="126" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5164,10 +6132,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5182,611 +6151,799 @@
     <col min="8" max="8" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G3" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="217" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="D4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="248" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E5" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G5" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="217" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C6" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="248" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="248" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E11" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="217" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H14" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="G15" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" ht="248" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C17" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E17" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="G17" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C18" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E18" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="G18" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="248" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C19" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="G19" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="310" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="C20" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="G20" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="248" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" ht="217" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" ht="310" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="30"/>
+      <c r="K20" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2 J13:J16">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="NOT TESTED">
+  <conditionalFormatting sqref="J2 J14:J17">
+    <cfRule type="containsText" dxfId="123" priority="45" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="122" priority="46" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="121" priority="47" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="120" priority="48" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J5">
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="119" priority="41" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="118" priority="42" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="117" priority="43" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="116" priority="44" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="115" priority="29" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="30" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="31" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="32" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="26" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J13">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="22" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="24" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="14" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="16" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J12">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J20">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5797,11 +6954,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K158"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5814,551 +6970,568 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="37" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="372" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
+      <c r="F5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="403" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="37" t="s">
+      <c r="F6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="403" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="E7" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="38" t="s">
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="38" t="s">
+      <c r="H7" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="38" t="s">
+      <c r="B8" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="38" t="s">
+      <c r="D8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="38" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="37" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="37" t="s">
+      <c r="H8" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="403" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="37" t="s">
+      <c r="D9" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="39" t="s">
+      <c r="F9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="39" t="s">
+      <c r="H9" s="25" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="42"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="40" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="41" t="s">
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="36"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="36"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="36"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="36"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="41" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="36"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="36"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="40" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="36"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="41" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="36"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="41" t="s">
+      <c r="I10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="36"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="41" t="s">
+      <c r="F11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="36"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="36"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="41" t="s">
+      <c r="H11" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="36"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="41" t="s">
+      <c r="B12" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="36"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="41" t="s">
+      <c r="D12" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="36"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="41" t="s">
+      <c r="F12" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="42"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="43" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="43" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="43" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="41" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="36"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="36"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="41" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="36"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="41" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="36"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="41" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="36"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="41" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="36"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="41" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="41" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="41" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="41" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="41" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="41" t="s">
-        <v>394</v>
-      </c>
+      <c r="H12" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="91" priority="45" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="90" priority="46" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="89" priority="47" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="88" priority="48" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="87" priority="37" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="40" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="80" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="32" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="16" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J12">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6369,10 +7542,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6387,121 +7561,232 @@
     <col min="8" max="8" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9" t="s">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="27" t="s">
         <v>32</v>
       </c>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="202" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6511,17 +7796,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K10" sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="20.90625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" customWidth="1"/>
@@ -6529,142 +7815,413 @@
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="35" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10" s="35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="279" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="310" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="25"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6673,7 +8230,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="NOT TESTED" id="{CC30BABC-B972-48EC-8C08-AEB5F9C5A6BC}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" text="NOT TESTED" id="{CC30BABC-B972-48EC-8C08-AEB5F9C5A6BC}">
             <xm:f>NOT(ISERROR(SEARCH("NOT TESTED",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -6683,7 +8240,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="BLOCKED" id="{35F68B2F-8160-4AB9-8CF5-81B0775A5BB7}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" text="BLOCKED" id="{35F68B2F-8160-4AB9-8CF5-81B0775A5BB7}">
             <xm:f>NOT(ISERROR(SEARCH("BLOCKED",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -6693,7 +8250,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="FAIL" id="{6D5DB3C0-3FE2-41FA-A0D1-6F50DBA8F298}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" text="FAIL" id="{6D5DB3C0-3FE2-41FA-A0D1-6F50DBA8F298}">
             <xm:f>NOT(ISERROR(SEARCH("FAIL",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -6703,7 +8260,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="PASS" id="{9B803C2E-0744-4D5B-9852-1163FE1D179C}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" text="PASS" id="{9B803C2E-0744-4D5B-9852-1163FE1D179C}">
             <xm:f>NOT(ISERROR(SEARCH("PASS",Loans!J2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -6713,7 +8270,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J2:J5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
